--- a/medicine/Enfance/Joseph_Kuhn-Régnier/Joseph_Kuhn-Régnier.xlsx
+++ b/medicine/Enfance/Joseph_Kuhn-Régnier/Joseph_Kuhn-Régnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Kuhn-R%C3%A9gnier</t>
+          <t>Joseph_Kuhn-Régnier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Kuhn-Régnier (1873-1940) est un peintre, dessinateur, affichiste et illustrateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Kuhn-R%C3%A9gnier</t>
+          <t>Joseph_Kuhn-Régnier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né Walfrid Joseph Louis Kuhn[1] le 10 décembre 1873 à Paris, il devient l'élève de Fernand Cormon aux Beaux-arts de Paris[2].
-Il est de 1900 à 1938 dessinateur de réclames et caricaturiste dans des magazines tels que La Vie Parisienne, Fantasio, Lectures pour tous et Le Sourire[2]. Il exécute la couverture de La Jeune Revue (juin 1899) fondée par Francis Laur[3].
-Il expose au Salon d'automne en 1904, une toile intitulée L'Indifférente[4]. Puis il devient membre du Salon des humoristes[2].
-Il illustre un certain nombre d'ouvrages de bibliophilie, et devient, au début des années 1920, l'un des spécialistes de l'illustration d'ouvrages pédagogiques, s'exprimant dans un dessin au trait net et précis, entre autres pour Fernand Nathan[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né Walfrid Joseph Louis Kuhn le 10 décembre 1873 à Paris, il devient l'élève de Fernand Cormon aux Beaux-arts de Paris.
+Il est de 1900 à 1938 dessinateur de réclames et caricaturiste dans des magazines tels que La Vie Parisienne, Fantasio, Lectures pour tous et Le Sourire. Il exécute la couverture de La Jeune Revue (juin 1899) fondée par Francis Laur.
+Il expose au Salon d'automne en 1904, une toile intitulée L'Indifférente. Puis il devient membre du Salon des humoristes.
+Il illustre un certain nombre d'ouvrages de bibliophilie, et devient, au début des années 1920, l'un des spécialistes de l'illustration d'ouvrages pédagogiques, s'exprimant dans un dessin au trait net et précis, entre autres pour Fernand Nathan. 
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Kuhn-R%C3%A9gnier</t>
+          <t>Joseph_Kuhn-Régnier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>J.-H. Rosny, Les Trois Rivales, vignettes de Marcel Capy, Paris, La Renaissance du livre, 1913.
 Collection « Contes et Légendes de tous les Pays », Fernand Nathan: vingt volumes de 1926 à 1938.
